--- a/Documentation/Palm_Pen_BOM.xlsx
+++ b/Documentation/Palm_Pen_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tylerf\Documents\R&amp;D\Low Tech AT Redux\documentation\palm pen\working docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-Team/Shared Documents/Server/3 AT Library/Published/Palm Pen Holder/Palm-Pen-Holder-main/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53638495-16E8-40B6-97D5-E8A6C21D99C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{53638495-16E8-40B6-97D5-E8A6C21D99C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{975076D7-2D49-468B-A3A6-C397151E8220}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="345" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -122,18 +122,12 @@
     <t>Hardware</t>
   </si>
   <si>
-    <t>https://www.homedepot.ca/product/paulin-pan-square-machine-screw-m4-70-x-20-12pcs/1001588010</t>
-  </si>
-  <si>
     <t>https://www.homedepot.ca/product/paulin-metric-hex-nut-m4-70-16pcs/1001588036</t>
   </si>
   <si>
     <t>M4- 0.70 Machine Screw Nut</t>
   </si>
   <si>
-    <t>M4- 0.70 X 20 Machine Screw</t>
-  </si>
-  <si>
     <t xml:space="preserve">3D Printer </t>
   </si>
   <si>
@@ -141,9 +135,6 @@
   </si>
   <si>
     <t>Note that some printers are less accurate and M4 size hardware may not fit. It is recommended that you go to a hardware store and test different bolt sizes for the palm pen that is created</t>
-  </si>
-  <si>
-    <t>Date Created: 09/20/2021</t>
   </si>
   <si>
     <r>
@@ -166,6 +157,15 @@
   </si>
   <si>
     <t>Device: Palm Pen Holder</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.ca/product/paulin-pan-square-machine-screw-m4-70-x-16-12pcs/1001588009</t>
+  </si>
+  <si>
+    <t>M4- 0.70 X 16 Machine Screw</t>
+  </si>
+  <si>
+    <t>Date Created: 06/30/2023</t>
   </si>
 </sst>
 </file>
@@ -808,28 +808,28 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="89.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="89.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="36" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:12" ht="35.25" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -841,16 +841,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" s="5">
         <f>SUM(G5:G8)+E11</f>
-        <v>1.683125</v>
+        <v>1.7247916666666667</v>
       </c>
       <c r="D2" s="22">
         <f>SUM(F10:F10)/60</f>
@@ -861,12 +861,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -895,12 +895,12 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -920,15 +920,15 @@
         <v>0.18562500000000001</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -937,27 +937,27 @@
         <v>12</v>
       </c>
       <c r="E6" s="9">
-        <v>2.97</v>
+        <v>3.47</v>
       </c>
       <c r="F6" s="28">
         <f>E6/D6</f>
-        <v>0.24750000000000003</v>
+        <v>0.28916666666666668</v>
       </c>
       <c r="G6" s="28">
         <f>F6*C6</f>
-        <v>0.24750000000000003</v>
+        <v>0.28916666666666668</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="9"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>13</v>
       </c>
@@ -969,7 +969,7 @@
       <c r="G8" s="21"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -992,12 +992,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="D11" s="19" t="s">
         <v>19</v>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
@@ -1041,18 +1041,18 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>21</v>
       </c>
@@ -1068,7 +1068,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>22</v>
       </c>
@@ -1076,22 +1076,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="38b325e6-602c-452a-8617-173bf47082c5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8cf100d1-0775-4feb-8634-62999c4541bc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1100,17 +1110,11 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B51EC7ECFAC78D4E8EF6CBAFFF0B3505" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="641b75ea3bb63f1616dabaeb23366f2d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xmlns:ns3="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="125aeedd71a4776722a3da1ea4cf4c4d" ns2:_="" ns3:_="">
-    <xsd:import namespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
-    <xsd:import namespace="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100456CAEA290209545A9F8681F83603874" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d27786a72e09a52c769a64d5f7eeaa24">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8cf100d1-0775-4feb-8634-62999c4541bc" xmlns:ns3="38b325e6-602c-452a-8617-173bf47082c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="03ae89856d271009074f70b56337b48d" ns2:_="" ns3:_="">
+    <xsd:import namespace="8cf100d1-0775-4feb-8634-62999c4541bc"/>
+    <xsd:import namespace="38b325e6-602c-452a-8617-173bf47082c5"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1119,17 +1123,18 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1137,7 +1142,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8cf100d1-0775-4feb-8634-62999c4541bc" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -1150,60 +1155,62 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+    <xsd:element name="MediaServiceLocation" ma:index="16" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="26ec1fed-e6ae-4c84-a4ac-123136fd9316" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="38b325e6-602c-452a-8617-173bf47082c5" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1222,12 +1229,23 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{fa4f962d-b49e-4e9c-aab6-6f9508495272}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="38b325e6-602c-452a-8617-173bf47082c5">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -1330,6 +1348,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="38b325e6-602c-452a-8617-173bf47082c5"/>
+    <ds:schemaRef ds:uri="8cf100d1-0775-4feb-8634-62999c4541bc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1337,24 +1366,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F4A8EF7-C8BE-4631-ABFD-9414FF8D4094}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E552E2B3-A051-4438-A050-1840825E5447}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
-    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
+    <ds:schemaRef ds:uri="8cf100d1-0775-4feb-8634-62999c4541bc"/>
+    <ds:schemaRef ds:uri="38b325e6-602c-452a-8617-173bf47082c5"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
